--- a/output_by_subject/HS451.xlsx
+++ b/output_by_subject/HS451.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,6 +1939,94 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1801CS49</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HS451</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1801CS51</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>HS451</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1801CS68</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>HS451</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1801EE50</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>HS451</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Open Elective</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
